--- a/proyecto_HHCRSP/data/Instance_organized.xlsx
+++ b/proyecto_HHCRSP/data/Instance_organized.xlsx
@@ -8,17 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/HHCRSP/proyecto_HHCRSP/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EC1DD3-289A-D940-98E8-6FB9E4728085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5C622E-1E57-5E42-B936-7F1C04229AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11040" yWindow="500" windowWidth="27340" windowHeight="21280" xr2:uid="{500E7BB7-36BD-E14A-9E7C-0366E0C56BAF}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="25100" windowHeight="16640" activeTab="4" xr2:uid="{500E7BB7-36BD-E14A-9E7C-0366E0C56BAF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="2" sheetId="2" r:id="rId2"/>
+    <sheet name="3" sheetId="3" r:id="rId3"/>
+    <sheet name="4" sheetId="4" r:id="rId4"/>
+    <sheet name="5" sheetId="6" r:id="rId5"/>
+    <sheet name="6" sheetId="5" r:id="rId6"/>
+    <sheet name="7" sheetId="7" r:id="rId7"/>
+    <sheet name="8" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -402,8 +420,2740 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{06B1B33E-CF80-4EA4-9A59-6D4120EBD0D4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAus-A4w8
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 02:47:45)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>turno preferencia, 0 es que prefieren las mañanas, 1 las tardes/noches</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{997D8806-1E55-4C4D-B092-E0C8AE16CE68}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAsKRobX4
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila    (2023-02-27 19:22:14)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">disp dias habiles, disp fds y festivos
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 si esta disponible o de lo contrario
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">------
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAus-A4xQ
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 02:55:37)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>el primer numero es si esta disponible los dias habiles en el turno de las mañanas, el segundo si esta disponible los fds y festivos en las mañanas (esta disponibilidad se cumple obligatoriamente no es una preferencia). espacio despues de la coma para que no lo tome como decimal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{5F0D6D6C-C2B8-40B7-861B-3D4413AEC117}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAsKRobX4
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila    (2023-02-27 19:22:14)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">disp dias habiles, disp fds y festivos
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 si esta disponible o de lo contrario
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">------
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAus-A4xQ
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 02:55:37)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>el primer numero es si esta disponible los dias habiles en el turno de las mañanas, el segundo si esta disponible los fds y festivos en las mañanas (esta disponibilidad se cumple obligatoriamente no es una preferencia). espacio despues de la coma para que no lo tome como decimal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{E0261EB7-0941-4818-97C2-7E008B78F354}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAus-A4xU
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 02:56:01)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>misma logica del anterior pero con el turno de las tardes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{D06E6130-15E2-428F-9EF6-C8FFE2E30C5F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAutaVT00
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 03:01:19)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">peticiion dias libres. cada num es un dia del mes, si es 1 es porque lo pidio libre. (se puede mejorar esta parametrizacion pero por falta de tiempo que asi con la lista de 30 o 31 numeros dependiendo del mes)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>esto si es una preferencia y no se cumple obligatoriamente. lo obligatorios son los dias de vacaciones</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{C56C65F0-E829-4A85-91A4-982905AD48E8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAus-A4xI
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 02:53:28)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>horas acumuladas de meses anteriores. si es negativo quiere decir que ellas le deben esas horas al hospital. si es positivo es que han trabajado de mas y se deben balancear esas horas para no tener que pagar extras.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{9973EDEC-B16F-482E-8B71-E5ED79155CFB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAus-A4w8
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 02:47:45)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>turno preferencia, 0 es que prefieren las mañanas, 1 las tardes/noches</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{F3B51CBF-E427-4043-B623-AF59D4BA52DF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAsKRobX4
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila    (2023-02-27 19:22:14)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">disp dias habiles, disp fds y festivos
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 si esta disponible o de lo contrario
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">------
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAus-A4xQ
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 02:55:37)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>el primer numero es si esta disponible los dias habiles en el turno de las mañanas, el segundo si esta disponible los fds y festivos en las mañanas (esta disponibilidad se cumple obligatoriamente no es una preferencia). espacio despues de la coma para que no lo tome como decimal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{9E56408B-C2E4-4EE5-B0DD-6ED8FFD4CF49}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAsKRobX4
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila    (2023-02-27 19:22:14)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">disp dias habiles, disp fds y festivos
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 si esta disponible o de lo contrario
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">------
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAus-A4xQ
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 02:55:37)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>el primer numero es si esta disponible los dias habiles en el turno de las mañanas, el segundo si esta disponible los fds y festivos en las mañanas (esta disponibilidad se cumple obligatoriamente no es una preferencia). espacio despues de la coma para que no lo tome como decimal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{19ACCAA3-AA22-498C-BB8B-2A4F9FBF894D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAus-A4xU
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 02:56:01)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>misma logica del anterior pero con el turno de las tardes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{C111B5EE-9288-4A7E-ABA7-D13129ADEA98}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAutaVT00
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 03:01:19)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">peticiion dias libres. cada num es un dia del mes, si es 1 es porque lo pidio libre. (se puede mejorar esta parametrizacion pero por falta de tiempo que asi con la lista de 30 o 31 numeros dependiendo del mes)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>esto si es una preferencia y no se cumple obligatoriamente. lo obligatorios son los dias de vacaciones</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{CC5FD3DD-ECE8-400C-A074-7E1410D8CDB0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAus-A4xI
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 02:53:28)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>horas acumuladas de meses anteriores. si es negativo quiere decir que ellas le deben esas horas al hospital. si es positivo es que han trabajado de mas y se deben balancear esas horas para no tener que pagar extras.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{7D1F7A35-0FE4-43BA-A7FC-9A490DADABFF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAus-A4w8
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 02:47:45)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>turno preferencia, 0 es que prefieren las mañanas, 1 las tardes/noches</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{5DF44439-4B9D-4DD4-8C59-0ECA6AA60A1A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAsKRobX4
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila    (2023-02-27 19:22:14)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">disp dias habiles, disp fds y festivos
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 si esta disponible o de lo contrario
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">------
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAus-A4xQ
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 02:55:37)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>el primer numero es si esta disponible los dias habiles en el turno de las mañanas, el segundo si esta disponible los fds y festivos en las mañanas (esta disponibilidad se cumple obligatoriamente no es una preferencia). espacio despues de la coma para que no lo tome como decimal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{9A17737C-B952-42EA-B02E-CC58D4ECEB0A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAsKRobX4
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila    (2023-02-27 19:22:14)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">disp dias habiles, disp fds y festivos
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 si esta disponible o de lo contrario
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">------
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAus-A4xQ
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 02:55:37)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>el primer numero es si esta disponible los dias habiles en el turno de las mañanas, el segundo si esta disponible los fds y festivos en las mañanas (esta disponibilidad se cumple obligatoriamente no es una preferencia). espacio despues de la coma para que no lo tome como decimal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{6D03A28C-782C-47AD-9A34-AB913097E455}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAus-A4xU
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 02:56:01)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>misma logica del anterior pero con el turno de las tardes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{A7625311-8C83-478A-BBEF-983B907B1A8A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAutaVT00
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 03:01:19)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">peticiion dias libres. cada num es un dia del mes, si es 1 es porque lo pidio libre. (se puede mejorar esta parametrizacion pero por falta de tiempo que asi con la lista de 30 o 31 numeros dependiendo del mes)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>esto si es una preferencia y no se cumple obligatoriamente. lo obligatorios son los dias de vacaciones</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{8672C588-D2CA-4CEC-9A73-642F6C1C2E7F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAus-A4xI
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 02:53:28)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>horas acumuladas de meses anteriores. si es negativo quiere decir que ellas le deben esas horas al hospital. si es positivo es que han trabajado de mas y se deben balancear esas horas para no tener que pagar extras.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{72BDAD0F-3E61-47C4-A12A-EF09AB7D96C1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAus-A4w8
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 02:47:45)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>turno preferencia, 0 es que prefieren las mañanas, 1 las tardes/noches</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{C7D2D29E-5DB1-48DA-AB82-B80924036A8B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAsKRobX4
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila    (2023-02-27 19:22:14)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">disp dias habiles, disp fds y festivos
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 si esta disponible o de lo contrario
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">------
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAus-A4xQ
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 02:55:37)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>el primer numero es si esta disponible los dias habiles en el turno de las mañanas, el segundo si esta disponible los fds y festivos en las mañanas (esta disponibilidad se cumple obligatoriamente no es una preferencia). espacio despues de la coma para que no lo tome como decimal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{735C3936-9525-414F-B123-09E747006F1A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAsKRobX4
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila    (2023-02-27 19:22:14)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">disp dias habiles, disp fds y festivos
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 si esta disponible o de lo contrario
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">------
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAus-A4xQ
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 02:55:37)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>el primer numero es si esta disponible los dias habiles en el turno de las mañanas, el segundo si esta disponible los fds y festivos en las mañanas (esta disponibilidad se cumple obligatoriamente no es una preferencia). espacio despues de la coma para que no lo tome como decimal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{A6CCC9D2-5F76-451E-BDB0-60B1948630CD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAus-A4xU
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 02:56:01)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>misma logica del anterior pero con el turno de las tardes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{FE126E14-0E81-4DFA-8AE2-3F9529C80A9F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAutaVT00
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 03:01:19)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">peticiion dias libres. cada num es un dia del mes, si es 1 es porque lo pidio libre. (se puede mejorar esta parametrizacion pero por falta de tiempo que asi con la lista de 30 o 31 numeros dependiendo del mes)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>esto si es una preferencia y no se cumple obligatoriamente. lo obligatorios son los dias de vacaciones</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{830282A1-977D-407F-8FD6-FDD5787BDEED}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAus-A4xI
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 02:53:28)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>horas acumuladas de meses anteriores. si es negativo quiere decir que ellas le deben esas horas al hospital. si es positivo es que han trabajado de mas y se deben balancear esas horas para no tener que pagar extras.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{72F8934B-EAFD-4F60-8B29-A1C601ACD398}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAsJ2mpRY
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Administrador    (2023-02-27 19:22:14)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>con los requerimientos que hay si pide vacaciones esos dia no da factible el NSP. Tendria que haber alguien mas disponible en la tarde</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{1212FC91-C3E1-427B-BBF7-ABD9E35BD818}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAus-A4w8
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 02:47:45)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>turno preferencia, 0 es que prefieren las mañanas, 1 las tardes/noches</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{73540422-0CBC-4AEE-9A7E-F5EA16E054C8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAsKRobX4
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila    (2023-02-27 19:22:14)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">disp dias habiles, disp fds y festivos
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 si esta disponible o de lo contrario
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">------
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAus-A4xQ
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 02:55:37)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>el primer numero es si esta disponible los dias habiles en el turno de las mañanas, el segundo si esta disponible los fds y festivos en las mañanas (esta disponibilidad se cumple obligatoriamente no es una preferencia). espacio despues de la coma para que no lo tome como decimal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{C4F3C7E3-C7BD-4D71-BC89-259041B956A3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAsKRobX4
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila    (2023-02-27 19:22:14)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">disp dias habiles, disp fds y festivos
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 si esta disponible o de lo contrario
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">------
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAus-A4xQ
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 02:55:37)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>el primer numero es si esta disponible los dias habiles en el turno de las mañanas, el segundo si esta disponible los fds y festivos en las mañanas (esta disponibilidad se cumple obligatoriamente no es una preferencia). espacio despues de la coma para que no lo tome como decimal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{77BB1503-5E94-4F1B-A4F6-0A76BC97782F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAus-A4xU
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 02:56:01)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>misma logica del anterior pero con el turno de las tardes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{A01A6997-BC1F-4A65-8E12-192B034F3945}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAutaVT00
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 03:01:19)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">peticiion dias libres. cada num es un dia del mes, si es 1 es porque lo pidio libre. (se puede mejorar esta parametrizacion pero por falta de tiempo que asi con la lista de 30 o 31 numeros dependiendo del mes)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>esto si es una preferencia y no se cumple obligatoriamente. lo obligatorios son los dias de vacaciones</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{1184801B-5D6E-4FA6-855A-4B80241A8CAF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAus-A4xI
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 02:53:28)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>horas acumuladas de meses anteriores. si es negativo quiere decir que ellas le deben esas horas al hospital. si es positivo es que han trabajado de mas y se deben balancear esas horas para no tener que pagar extras.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{B4AFFF26-BFE0-4CF8-9D42-0D02538EC4E9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAsJ2mpRY
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Administrador    (2023-02-27 19:22:14)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>con los requerimientos que hay si pide vacaciones esos dia no da factible el NSP. Tendria que haber alguien mas disponible en la tarde</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{F8B4F965-6AFF-4BC2-9532-797C3683FFD8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAus-A4w8
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 02:47:45)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>turno preferencia, 0 es que prefieren las mañanas, 1 las tardes/noches</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{9E48B2C9-6E78-4C2C-BB9A-5F2BA6C0E41B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAsKRobX4
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila    (2023-02-27 19:22:14)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">disp dias habiles, disp fds y festivos
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 si esta disponible o de lo contrario
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">------
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAus-A4xQ
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 02:55:37)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>el primer numero es si esta disponible los dias habiles en el turno de las mañanas, el segundo si esta disponible los fds y festivos en las mañanas (esta disponibilidad se cumple obligatoriamente no es una preferencia). espacio despues de la coma para que no lo tome como decimal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{FBB37693-E697-4E9A-B2E0-A009032E1E44}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAsKRobX4
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila    (2023-02-27 19:22:14)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">disp dias habiles, disp fds y festivos
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 si esta disponible o de lo contrario
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">------
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAus-A4xQ
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 02:55:37)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>el primer numero es si esta disponible los dias habiles en el turno de las mañanas, el segundo si esta disponible los fds y festivos en las mañanas (esta disponibilidad se cumple obligatoriamente no es una preferencia). espacio despues de la coma para que no lo tome como decimal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{0939961A-9EDF-4CC2-85BB-0AF427AC082B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAus-A4xU
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 02:56:01)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>misma logica del anterior pero con el turno de las tardes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{E3C507E2-AE05-42A3-9086-80B0701DDAC7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAutaVT00
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 03:01:19)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">peticiion dias libres. cada num es un dia del mes, si es 1 es porque lo pidio libre. (se puede mejorar esta parametrizacion pero por falta de tiempo que asi con la lista de 30 o 31 numeros dependiendo del mes)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>esto si es una preferencia y no se cumple obligatoriamente. lo obligatorios son los dias de vacaciones</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{A5BAAA55-0EFA-4674-BF1A-03675798E51C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAus-A4xI
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 02:53:28)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>horas acumuladas de meses anteriores. si es negativo quiere decir que ellas le deben esas horas al hospital. si es positivo es que han trabajado de mas y se deben balancear esas horas para no tener que pagar extras.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{789A09F7-69EB-401C-93EB-61C4C94D960B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAus-A4w8
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 02:47:45)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>turno preferencia, 0 es que prefieren las mañanas, 1 las tardes/noches</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{22C8EE2A-1CEA-4FB0-8D8D-4AAFC922FD05}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAsKRobX4
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila    (2023-02-27 19:22:14)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">disp dias habiles, disp fds y festivos
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 si esta disponible o de lo contrario
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">------
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAus-A4xQ
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 02:55:37)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>el primer numero es si esta disponible los dias habiles en el turno de las mañanas, el segundo si esta disponible los fds y festivos en las mañanas (esta disponibilidad se cumple obligatoriamente no es una preferencia). espacio despues de la coma para que no lo tome como decimal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{BE627B64-1185-4EFD-B408-5EB19DD41053}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAsKRobX4
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila    (2023-02-27 19:22:14)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">disp dias habiles, disp fds y festivos
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 si esta disponible o de lo contrario
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">------
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAus-A4xQ
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 02:55:37)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>el primer numero es si esta disponible los dias habiles en el turno de las mañanas, el segundo si esta disponible los fds y festivos en las mañanas (esta disponibilidad se cumple obligatoriamente no es una preferencia). espacio despues de la coma para que no lo tome como decimal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{DFC7F7C0-FAD3-46F6-A4AB-B5FDF2D12D6F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAus-A4xU
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 02:56:01)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>misma logica del anterior pero con el turno de las tardes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{0D9CB091-3BFA-4EC6-B16B-DFA2E20B20B1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAutaVT00
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 03:01:19)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">peticiion dias libres. cada num es un dia del mes, si es 1 es porque lo pidio libre. (se puede mejorar esta parametrizacion pero por falta de tiempo que asi con la lista de 30 o 31 numeros dependiendo del mes)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>esto si es una preferencia y no se cumple obligatoriamente. lo obligatorios son los dias de vacaciones</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{65C7E16B-6221-48A3-8882-BD44FD9EE054}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAus-A4xI
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camila Rocha    (2023-04-11 02:53:28)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>horas acumuladas de meses anteriores. si es negativo quiere decir que ellas le deben esas horas al hospital. si es positivo es que han trabajado de mas y se deben balancear esas horas para no tener que pagar extras.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="66">
   <si>
     <t>Otalora_Castro_Rocio_del_Pilar</t>
   </si>
@@ -482,12 +3232,132 @@
   <si>
     <t>HA</t>
   </si>
+  <si>
+    <t>0,0,0,0,1,0,0,0,0,0,0,0,1,0,0,0,0,0,1,1,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,0,1,0,0,0,0,0,1,0,0,0,0,0,0,0,0,0,0,0,0,0,1,1,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,1,0,0,0,0,0,0,0,1,0,0,0,0,0,1,1,0,0,0,0,0,0,1,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,1,0,0,0,0,0,0,0,1,0,0,0,0,0,1,0,0,0,0,0,0,1,1,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,0,1,0,0,0,0,0,1,0,0,0,0,0,0,1,1,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>1,0,0,0,1,0,0,0,0,0,0,0,1,0,0,0,0,0,1,0,0,0,0,0,0,0,1,0</t>
+  </si>
+  <si>
+    <t> 0,0,0,0,0,1,0,0,0,0,0,1,1,0,0,0,0,0,0,0,0,0,0,0,0,1,0,0</t>
+  </si>
+  <si>
+    <t> 0,0,0,0,0,1,0,0,0,0,0,1,1,0,0,0,0,0,0,0,0,0,0,0,0,1,0,1</t>
+  </si>
+  <si>
+    <t>7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28</t>
+  </si>
+  <si>
+    <t>0,0,0,0,1,1,0,0,0,0,0,0,0,0,0,0,0,0,1,0,0,0,0,0,0,0,1,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,0,0,0,0,0,0,0,1,0,0,0,0,0,0,0,1,0,0,0,0,0,0,1,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,0,1,0,0,0,0,0,0,1,0,0,0,0,0,0,1,1,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,1,0,0,0,0,0,0,1,1,0,0,0,0,0,0,0,0,0,0,0,0,1,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,0,1,0,0,0,0,0,1,0,0,0,0,0,0,1,1,0,0,0,0,0,0,0,0,0,0,1</t>
+  </si>
+  <si>
+    <t>8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30</t>
+  </si>
+  <si>
+    <t>0,1,0,0,0,0,0,1,0,0,0,0,0,0,1,1,0,0,0,0,0,0,0,0,0,0,0,0,1,1</t>
+  </si>
+  <si>
+    <t>0,1,1,0,0,0,0,0,0,0,0,0,0,0,0,1,0,0,0,0,0,0,0,1,0,0,0,1,0,1</t>
+  </si>
+  <si>
+    <t>0,1,0,0,0,0,0,0,0,1,0,0,0,1,0,1,0,0,0,0,0,0,0,1,0,0,0,0,0,1</t>
+  </si>
+  <si>
+    <t>0,0,1,0,0,0,0,0,1,0,0,0,0,0,0,0,1,0,0,0,0,0,1,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,1,0,0,0,0,0,0,1,1,0,0,0,0,0,0,0,0,0,0,0,0,1,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,1,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,1,0,0,0,0,0,1,0,0,0,0,0,0,0,1,0,0,0,0,0,1,1,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,1,0,0,0,0,0,1,0,0,0,0,0,0,0,1,0,0,0,0,0,1,1,0,0,0,0,0,1</t>
+  </si>
+  <si>
+    <t>0,0,0,0,0,0,0,1,0,0,0,0,0,1,0,0,0,0,0,0,1,1,0,0,0,0,0,1,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,0,0,0,1,0,0,0,0,0,0,1,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>1,0,0,0,0,0,1,1,0,0,0,0,0,0,0,0,0,0,0,0,1,0,0,0,0,0,0,0,1,0,0</t>
+  </si>
+  <si>
+    <t>1,0,0,0,0,0,1,0,0,0,0,0,0,1,1,0,0,0,0,0,0,0,0,0,0,0,0,0,1,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,0,0,0,1,0,0,0,0,0,1,0,0,0,0,0,0,0,1,0,0,0,0,0,1,0,0,0</t>
+  </si>
+  <si>
+    <t>1,0,0,0,0,0,1,0,0,0,0,0,0,0,1,0,0,0,0,0,1,0,0,0,0,0,0,1,1,0,0</t>
+  </si>
+  <si>
+    <t>1,0,0,0,0,0,1,0,0,0,0,0,0,0,1,0,0,0,0,0,1,0,0,0,0,0,0,1,1,0,1</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28</t>
+  </si>
+  <si>
+    <t>0,0,0,0,0,0,0,0,0,0,1,0,0,0,0,0,0,1,1,1,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,0,0,0,0,0,0,0,1,0,0,0,0,0,1,0,0,0,0,0,0,0,1,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,1,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,1,1,0,0,0,0,0,0,0,0,0,0,0,0,1,0,0,0,0,0,0,0,1,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,1,0,0,0,0,0,1,1,0,0,0,0,0,0,0,0,0,0,0,0,1,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,0,0,0,0,0,0,1,0,0,0,0,0,0,0,1,0,0,0,0,0,1,1,1,0,0,0</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -520,8 +3390,28 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,6 +3422,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF9CC2E5"/>
         <bgColor rgb="FF9CC2E5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -577,7 +3473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -598,6 +3494,27 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -916,8 +3833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32417C06-51FD-8F4F-BA6C-609263FAE91E}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -925,7 +3842,7 @@
     <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.83203125" bestFit="1" customWidth="1"/>
@@ -1287,4 +4204,2639 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19783D1F-F470-4AF9-96BA-F3694A8795CF}">
+  <dimension ref="A1:Q9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="10">
+        <v>-10</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="10">
+        <v>-26</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="10">
+        <v>-2</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="10">
+        <v>-23.5</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="10">
+        <v>-22.5</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="10">
+        <v>-22</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="10">
+        <v>10.5</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53217E87-A014-4BCD-BF99-23A77F5C5D1F}">
+  <dimension ref="A1:Q9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-5.5</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-23</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-19</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-23.5</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-22</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" ht="128" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="1">
+        <v>19</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AE3208-01F0-4871-ADF1-4DA308605CF2}">
+  <dimension ref="A1:Q9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-36</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" ht="113" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-19</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="1">
+        <v>-15</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-52</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-50.5</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-30</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-6</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAAA9D1C-8264-4ADD-8085-84F09F82C800}">
+  <dimension ref="A1:Q9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-53</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-21</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="1">
+        <v>-33.5</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" ht="85" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-51.5</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-60.5</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-48.5</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-18</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA61B065-A0C7-45C1-9481-A9CF26AD1EDF}">
+  <dimension ref="A1:Q9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-53</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-21</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="1">
+        <v>-33.5</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" ht="85" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-51.5</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-60.5</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-48.5</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-18</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB180F3B-C471-4637-930A-556411F37679}">
+  <dimension ref="A1:Q9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-53</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-21</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="1">
+        <v>-33.5</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-51.5</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" ht="127" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-60.5</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-48.5</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-18</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B613BFE2-7196-4E09-9A91-65346C39A0EC}">
+  <dimension ref="A1:Q9"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-53</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-21</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="1">
+        <v>-33.5</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-51.5</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" ht="127" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-60.5</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-48.5</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-18</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/proyecto_HHCRSP/data/Instance_organized.xlsx
+++ b/proyecto_HHCRSP/data/Instance_organized.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/HHCRSP/proyecto_HHCRSP/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5C622E-1E57-5E42-B936-7F1C04229AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FDBC6B-F9CF-EB48-9DF7-E82124BC45F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25100" windowHeight="16640" activeTab="4" xr2:uid="{500E7BB7-36BD-E14A-9E7C-0366E0C56BAF}"/>
+    <workbookView xWindow="0" yWindow="580" windowWidth="25100" windowHeight="16640" activeTab="4" xr2:uid="{500E7BB7-36BD-E14A-9E7C-0366E0C56BAF}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -5338,7 +5338,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
